--- a/data/processed/unmatched_columns/unmatched_湘潭医卫职业技术学院.xlsx
+++ b/data/processed/unmatched_columns/unmatched_湘潭医卫职业技术学院.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,6 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>学费
-（元/年）</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>_源文件</t>
         </is>
       </c>
@@ -458,10 +452,7 @@
 学院</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>5460</v>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>湘潭医卫职业技术学院.xlsx</t>
         </is>
@@ -474,10 +465,7 @@
 学院</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>5460</v>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>湘潭医卫职业技术学院.xlsx</t>
         </is>
@@ -490,10 +478,7 @@
 学院</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>5460</v>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>湘潭医卫职业技术学院.xlsx</t>
         </is>
@@ -506,10 +491,7 @@
 学院</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>5460</v>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>湘潭医卫职业技术学院.xlsx</t>
         </is>
@@ -522,10 +504,7 @@
 学院</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>5460</v>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>湘潭医卫职业技术学院.xlsx</t>
         </is>
@@ -538,10 +517,7 @@
 学院</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>5460</v>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>湘潭医卫职业技术学院.xlsx</t>
         </is>
@@ -554,10 +530,7 @@
 学院</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>5460</v>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>湘潭医卫职业技术学院.xlsx</t>
         </is>
@@ -570,10 +543,7 @@
 学院</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>5460</v>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>湘潭医卫职业技术学院.xlsx</t>
         </is>
@@ -586,10 +556,7 @@
 学院</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>5460</v>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>湘潭医卫职业技术学院.xlsx</t>
         </is>
@@ -602,10 +569,7 @@
 学院</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>5460</v>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>湘潭医卫职业技术学院.xlsx</t>
         </is>
@@ -618,10 +582,7 @@
 学院</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>5460</v>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>湘潭医卫职业技术学院.xlsx</t>
         </is>
@@ -634,10 +595,7 @@
 学院</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>5460</v>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>湘潭医卫职业技术学院.xlsx</t>
         </is>
@@ -650,10 +608,7 @@
 学院</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>5460</v>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>湘潭医卫职业技术学院.xlsx</t>
         </is>
@@ -666,10 +621,7 @@
 学院</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>5460</v>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>湘潭医卫职业技术学院.xlsx</t>
         </is>
@@ -682,10 +634,7 @@
 学院</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>5460</v>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>湘潭医卫职业技术学院.xlsx</t>
         </is>
@@ -698,10 +647,7 @@
 学院</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>5460</v>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>湘潭医卫职业技术学院.xlsx</t>
         </is>
@@ -713,10 +659,7 @@
           <t>单招总计划</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>2325</v>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>湘潭医卫职业技术学院.xlsx</t>
         </is>
